--- a/OPLA POLA qPCR Summary.xlsx
+++ b/OPLA POLA qPCR Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/OPLA-vs-POLA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10E1DF5B-A195-4077-91BF-B95094242F0B}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7FC156-2E8A-4043-967D-CA8181E99896}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Averages" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,6 @@
     <t>Control</t>
   </si>
   <si>
-    <t>800uL OPLA</t>
-  </si>
-  <si>
-    <t>800uL POLA</t>
-  </si>
-  <si>
     <t>B2M</t>
   </si>
   <si>
@@ -180,6 +174,12 @@
   </si>
   <si>
     <t>NFKB</t>
+  </si>
+  <si>
+    <t>800uM OPLA</t>
+  </si>
+  <si>
+    <t>800uM POLA</t>
   </si>
 </sst>
 </file>
@@ -1292,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:Q41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,43 +1322,43 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0.4263927293810692</v>
@@ -1434,7 +1434,7 @@
         <v>0.5</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>0.31512549785862698</v>
@@ -1490,7 +1490,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>0.45273714210549171</v>
@@ -1546,7 +1546,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>0.3829501772573668</v>
@@ -1602,7 +1602,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>0.42833087959300731</v>
@@ -1658,7 +1658,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>0.35793999756923628</v>
@@ -1714,7 +1714,7 @@
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>0.37340238439133594</v>
@@ -1770,7 +1770,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9">
         <v>0.35503258331734205</v>
@@ -1826,7 +1826,7 @@
         <v>0.5</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>0.41592618918148794</v>
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>800</v>
@@ -1882,7 +1882,7 @@
         <v>0.5</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <v>0.45842475302599439</v>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>800</v>
@@ -1938,7 +1938,7 @@
         <v>0.5</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>0.43374487761100955</v>
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>800</v>
@@ -1994,7 +1994,7 @@
         <v>0.5</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13">
         <v>0.40114007176242378</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>800</v>
@@ -2050,7 +2050,7 @@
         <v>0.5</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14">
         <v>0.38460694456052319</v>
@@ -2094,7 +2094,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>800</v>
@@ -2106,7 +2106,7 @@
         <v>0.5</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15">
         <v>0.39546471705695735</v>
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>800</v>
@@ -2162,7 +2162,7 @@
         <v>0.5</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16">
         <v>0.41179439627934949</v>
@@ -2206,7 +2206,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>800</v>
@@ -2218,7 +2218,7 @@
         <v>0.5</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G17">
         <v>0.27876595323904763</v>
@@ -2262,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>800</v>
@@ -2274,7 +2274,7 @@
         <v>0.5</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18">
         <v>0.53438173502337782</v>
@@ -2318,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>800</v>
@@ -2330,7 +2330,7 @@
         <v>0.5</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G19">
         <v>0.44651974869658745</v>
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C20">
         <v>800</v>
@@ -2386,7 +2386,7 @@
         <v>0.5</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G20">
         <v>0.5215632857774023</v>
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>800</v>
@@ -2442,7 +2442,7 @@
         <v>0.5</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G21">
         <v>0.40358335376353621</v>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>800</v>
@@ -2498,7 +2498,7 @@
         <v>0.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>0.35086902471059467</v>
@@ -2542,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>800</v>
@@ -2554,7 +2554,7 @@
         <v>0.5</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>0.44820160291616035</v>
@@ -2598,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C24">
         <v>800</v>
@@ -2610,7 +2610,7 @@
         <v>0.5</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24">
         <v>0.46135156132242333</v>
@@ -2654,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>800</v>
@@ -2666,7 +2666,7 @@
         <v>0.5</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G25">
         <v>0.36911988654952566</v>
@@ -2710,7 +2710,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C26">
         <v>800</v>
@@ -2722,7 +2722,7 @@
         <v>0.5</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>0.36964436422123836</v>
@@ -2766,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>800</v>
@@ -2778,7 +2778,7 @@
         <v>0.5</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>0.50392046075908659</v>
@@ -2822,7 +2822,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C28">
         <v>800</v>
@@ -2834,7 +2834,7 @@
         <v>0.5</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>0.24389984093536096</v>
@@ -2890,40 +2890,40 @@
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -3126,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2">
         <v>800</v>
@@ -3190,8 +3190,8 @@
       <c r="A37" s="1">
         <v>2</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C37" s="1">
         <v>800</v>
@@ -3256,7 +3256,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2">
         <v>800</v>
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1">
         <v>800</v>
@@ -3385,8 +3385,8 @@
       <c r="A40" s="2">
         <v>2</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>7</v>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C40" s="2">
         <v>800</v>
@@ -3451,7 +3451,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1">
         <v>800</v>
@@ -3525,8 +3525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B02CF51-5187-4B53-8E13-4B1ED98A1456}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3548,40 +3548,40 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>45</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>800</v>
@@ -3801,7 +3801,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>800</v>
@@ -3854,7 +3854,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -3907,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>800</v>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>800</v>
@@ -4013,7 +4013,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>800</v>
